--- a/data/US_SCOTUS_2020-09-30.xlsx
+++ b/data/US_SCOTUS_2020-09-30.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1005">
   <si>
     <t>succeeded</t>
   </si>
@@ -3025,6 +3023,12 @@
   </si>
   <si>
     <t>Lutheran</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_justices_of_the_Supreme_Court_of_the_United_States</t>
+  </si>
+  <si>
+    <t>incumbent tenure based on 2020-09-30</t>
   </si>
 </sst>
 </file>
@@ -3035,13 +3039,20 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3061,18 +3072,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3367,15 +3384,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -3399,10 +3417,10 @@
         <v>553</v>
       </c>
       <c r="B1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>998</v>
       </c>
       <c r="D1" t="s">
         <v>977</v>
@@ -3466,11 +3484,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3528,11 +3546,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>978</v>
@@ -3590,11 +3608,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>91</v>
@@ -3652,11 +3670,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -3714,11 +3732,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -3776,11 +3794,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
@@ -3838,11 +3856,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>979</v>
@@ -3903,11 +3921,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>75</v>
@@ -3968,11 +3986,11 @@
       <c r="A10">
         <v>2.1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>978</v>
@@ -4033,11 +4051,11 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>627</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>980</v>
@@ -4098,11 +4116,11 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -4163,11 +4181,11 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>113</v>
@@ -4228,11 +4246,11 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
@@ -4293,11 +4311,11 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>981</v>
@@ -4358,11 +4376,11 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>979</v>
@@ -4423,11 +4441,11 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>74</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>95</v>
@@ -4488,11 +4506,11 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>78</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
@@ -4550,11 +4568,11 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>84</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>128</v>
@@ -4615,11 +4633,11 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>154</v>
@@ -4680,11 +4698,11 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>94</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>147</v>
@@ -4745,11 +4763,11 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>99</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -4810,11 +4828,11 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>105</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>182</v>
@@ -4875,11 +4893,11 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>112</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>159</v>
@@ -4940,11 +4958,11 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>117</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>982</v>
@@ -5005,11 +5023,11 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>122</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>204</v>
@@ -5070,11 +5088,11 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>127</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>142</v>
@@ -5135,11 +5153,11 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>131</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>983</v>
@@ -5197,11 +5215,11 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>136</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>169</v>
@@ -5259,11 +5277,11 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>141</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>189</v>
@@ -5324,11 +5342,11 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>146</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>219</v>
@@ -5389,11 +5407,11 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>152</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>164</v>
@@ -5454,11 +5472,11 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
         <v>158</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>209</v>
@@ -5519,11 +5537,11 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
         <v>163</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>176</v>
@@ -5584,11 +5602,11 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
         <v>168</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>195</v>
@@ -5649,11 +5667,11 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
         <v>174</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>245</v>
@@ -5714,11 +5732,11 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
         <v>181</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>239</v>
@@ -5779,11 +5797,11 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>187</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>272</v>
@@ -5844,11 +5862,11 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
         <v>193</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>229</v>
@@ -5909,11 +5927,11 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>198</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>294</v>
@@ -5971,11 +5989,11 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>203</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>980</v>
@@ -6036,11 +6054,11 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>208</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>234</v>
@@ -6101,11 +6119,11 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
         <v>214</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>276</v>
@@ -6166,11 +6184,11 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>218</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>250</v>
@@ -6231,11 +6249,11 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
         <v>223</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>261</v>
@@ -6296,11 +6314,11 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>228</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>984</v>
@@ -6361,11 +6379,11 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>233</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>255</v>
@@ -6426,11 +6444,11 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>238</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>266</v>
@@ -6491,11 +6509,11 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
         <v>244</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>299</v>
@@ -6556,11 +6574,11 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
         <v>249</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>286</v>
@@ -6621,11 +6639,11 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
         <v>562</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>985</v>
@@ -6686,11 +6704,11 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
         <v>260</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
       </c>
       <c r="D52" t="s">
         <v>310</v>
@@ -6751,11 +6769,11 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
         <v>264</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
       </c>
       <c r="D53" t="s">
         <v>309</v>
@@ -6816,11 +6834,11 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
         <v>270</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
       </c>
       <c r="D54" t="s">
         <v>304</v>
@@ -6881,11 +6899,11 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
         <v>275</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>302</v>
@@ -6946,11 +6964,11 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
         <v>279</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>986</v>
@@ -7011,11 +7029,11 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
         <v>284</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
       </c>
       <c r="D57" t="s">
         <v>987</v>
@@ -7076,11 +7094,11 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
         <v>289</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>306</v>
@@ -7141,11 +7159,11 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
         <v>293</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>335</v>
@@ -7206,11 +7224,11 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
         <v>298</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
       </c>
       <c r="D60" t="s">
         <v>342</v>
@@ -7271,11 +7289,11 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
         <v>301</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
       </c>
       <c r="D61" t="s">
         <v>331</v>
@@ -7336,11 +7354,11 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
         <v>303</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
       </c>
       <c r="D62" t="s">
         <v>315</v>
@@ -7401,11 +7419,11 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
         <v>305</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>319</v>
@@ -7466,11 +7484,11 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
         <v>308</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>324</v>
@@ -7531,11 +7549,11 @@
       <c r="A65">
         <v>55.1</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>284</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
       </c>
       <c r="D65" t="s">
         <v>987</v>
@@ -7596,11 +7614,11 @@
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
         <v>311</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
       </c>
       <c r="D66" t="s">
         <v>988</v>
@@ -7661,11 +7679,11 @@
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
         <v>314</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>985</v>
@@ -7726,11 +7744,11 @@
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
         <v>316</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>333</v>
@@ -7791,11 +7809,11 @@
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
         <v>318</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>354</v>
@@ -7856,11 +7874,11 @@
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
         <v>321</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>350</v>
@@ -7921,11 +7939,11 @@
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
         <v>323</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
       </c>
       <c r="D71" t="s">
         <v>328</v>
@@ -7986,11 +8004,11 @@
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
         <v>307</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>337</v>
@@ -8051,11 +8069,11 @@
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
         <v>326</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
       </c>
       <c r="D73" t="s">
         <v>346</v>
@@ -8116,11 +8134,11 @@
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
         <v>329</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>352</v>
@@ -8181,11 +8199,11 @@
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
         <v>332</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
       </c>
       <c r="D75" t="s">
         <v>340</v>
@@ -8246,11 +8264,11 @@
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
         <v>334</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>356</v>
@@ -8311,11 +8329,11 @@
       <c r="A77">
         <v>62.1</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
         <v>308</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
       </c>
       <c r="D77" t="s">
         <v>324</v>
@@ -8376,11 +8394,11 @@
       <c r="A78">
         <v>74</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
         <v>339</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>989</v>
@@ -8441,11 +8459,11 @@
       <c r="A79">
         <v>75</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
         <v>341</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>348</v>
@@ -8506,11 +8524,11 @@
       <c r="A80">
         <v>76</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
         <v>343</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>397</v>
@@ -8571,11 +8589,11 @@
       <c r="A81">
         <v>77</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
         <v>345</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>377</v>
@@ -8636,11 +8654,11 @@
       <c r="A82">
         <v>78</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
         <v>347</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>385</v>
@@ -8701,11 +8719,11 @@
       <c r="A83">
         <v>79</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
         <v>349</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>402</v>
@@ -8766,11 +8784,11 @@
       <c r="A84">
         <v>80</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
         <v>351</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>365</v>
@@ -8831,11 +8849,11 @@
       <c r="A85">
         <v>73.099999999999994</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>334</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
       </c>
       <c r="D85" t="s">
         <v>356</v>
@@ -8896,11 +8914,11 @@
       <c r="A86">
         <v>81</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
         <v>353</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
       </c>
       <c r="D86" t="s">
         <v>358</v>
@@ -8961,11 +8979,11 @@
       <c r="A87">
         <v>82</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
         <v>355</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
       </c>
       <c r="D87" t="s">
         <v>986</v>
@@ -9026,11 +9044,11 @@
       <c r="A88">
         <v>83</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
         <v>357</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
       </c>
       <c r="D88" t="s">
         <v>978</v>
@@ -9091,11 +9109,11 @@
       <c r="A89">
         <v>84</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
         <v>359</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
       </c>
       <c r="D89" t="s">
         <v>379</v>
@@ -9156,11 +9174,11 @@
       <c r="A90">
         <v>85</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
         <v>362</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
       </c>
       <c r="D90" t="s">
         <v>370</v>
@@ -9221,11 +9239,11 @@
       <c r="A91">
         <v>86</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
         <v>363</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
       </c>
       <c r="D91" t="s">
         <v>390</v>
@@ -9286,11 +9304,11 @@
       <c r="A92">
         <v>87</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
         <v>366</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
       </c>
       <c r="D92" t="s">
         <v>374</v>
@@ -9351,11 +9369,11 @@
       <c r="A93">
         <v>88</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
         <v>369</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
       </c>
       <c r="D93" t="s">
         <v>392</v>
@@ -9416,11 +9434,11 @@
       <c r="A94">
         <v>89</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
         <v>228</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
       </c>
       <c r="D94" t="s">
         <v>984</v>
@@ -9481,11 +9499,11 @@
       <c r="A95">
         <v>90</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
         <v>373</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
       </c>
       <c r="D95" t="s">
         <v>413</v>
@@ -9546,11 +9564,11 @@
       <c r="A96">
         <v>91</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
         <v>375</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
       </c>
       <c r="D96" t="s">
         <v>382</v>
@@ -9611,11 +9629,11 @@
       <c r="A97">
         <v>92</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
         <v>378</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
       </c>
       <c r="D97" t="s">
         <v>405</v>
@@ -9676,11 +9694,11 @@
       <c r="A98">
         <v>93</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
         <v>380</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
       </c>
       <c r="D98" t="s">
         <v>987</v>
@@ -9741,11 +9759,11 @@
       <c r="A99">
         <v>94</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
         <v>384</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
       </c>
       <c r="D99" t="s">
         <v>387</v>
@@ -9806,11 +9824,11 @@
       <c r="A100">
         <v>95</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
         <v>386</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
       </c>
       <c r="D100" t="s">
         <v>395</v>
@@ -9871,11 +9889,11 @@
       <c r="A101">
         <v>96</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
         <v>389</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
       </c>
       <c r="D101" t="s">
         <v>981</v>
@@ -9936,11 +9954,11 @@
       <c r="A102">
         <v>97</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
         <v>391</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
       </c>
       <c r="D102" t="s">
         <v>407</v>
@@ -10001,11 +10019,11 @@
       <c r="A103">
         <v>98</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
         <v>394</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
       </c>
       <c r="D103" t="s">
         <v>422</v>
@@ -10066,11 +10084,11 @@
       <c r="A104">
         <v>99</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
         <v>396</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
       </c>
       <c r="D104" t="s">
         <v>411</v>
@@ -10131,11 +10149,11 @@
       <c r="A105">
         <v>100</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
         <v>398</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
       </c>
       <c r="D105" t="s">
         <v>409</v>
@@ -10199,11 +10217,11 @@
       <c r="A106">
         <v>101</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
         <v>401</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
       </c>
       <c r="D106" t="s">
         <v>431</v>
@@ -10264,11 +10282,11 @@
       <c r="A107">
         <v>102</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
         <v>404</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
       </c>
       <c r="D107" t="s">
         <v>426</v>
@@ -10326,11 +10344,11 @@
       <c r="A108">
         <v>100.1</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
         <v>398</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
       </c>
       <c r="D108" t="s">
         <v>409</v>
@@ -10394,11 +10412,11 @@
       <c r="A109">
         <v>103</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
         <v>408</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
       </c>
       <c r="D109" t="s">
         <v>433</v>
@@ -10459,11 +10477,11 @@
       <c r="A110">
         <v>104</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
         <v>410</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
       </c>
       <c r="D110" t="s">
         <v>436</v>
@@ -10521,11 +10539,11 @@
       <c r="A111">
         <v>105</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
         <v>412</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
       </c>
       <c r="D111" t="s">
         <v>428</v>
@@ -10583,11 +10601,11 @@
       <c r="A112">
         <v>106</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
         <v>415</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
       </c>
       <c r="D112" t="s">
         <v>990</v>
@@ -10645,11 +10663,11 @@
       <c r="A113">
         <v>107</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
         <v>418</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
       </c>
       <c r="D113" t="s">
         <v>991</v>
@@ -10710,11 +10728,11 @@
       <c r="A114">
         <v>108</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
         <v>421</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
       </c>
       <c r="D114" t="s">
         <v>992</v>
@@ -10772,11 +10790,11 @@
       <c r="A115">
         <v>109</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
         <v>423</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
       </c>
       <c r="D115" t="s">
         <v>989</v>
@@ -10834,11 +10852,11 @@
       <c r="A116">
         <v>110</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
         <v>425</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
       </c>
       <c r="D116" t="s">
         <v>993</v>
@@ -10896,11 +10914,11 @@
       <c r="A117">
         <v>111</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
         <v>427</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
       </c>
       <c r="D117" t="s">
         <v>994</v>
@@ -10958,11 +10976,11 @@
       <c r="A118">
         <v>112</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
         <v>430</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
       </c>
       <c r="D118" t="s">
         <v>995</v>
@@ -11020,11 +11038,11 @@
       <c r="A119">
         <v>113</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
         <v>432</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
       </c>
       <c r="D119" t="s">
         <v>996</v>
@@ -11085,11 +11103,11 @@
       <c r="A120">
         <v>114</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
         <v>435</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>997</v>
@@ -11141,6 +11159,16 @@
       </c>
       <c r="V120" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="C123" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="C124" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="318" spans="1:1">
@@ -11635,31 +11663,10 @@
       <c r="D827" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C123" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>